--- a/Excel Output/Section_6.xlsx
+++ b/Excel Output/Section_6.xlsx
@@ -508,13 +508,13 @@
         <v>5.367585574295084e-08</v>
       </c>
       <c r="F2">
-        <v>0.001015053129743761</v>
+        <v>2.255673621652803e-05</v>
       </c>
       <c r="G2">
         <v>288.8380151009035</v>
       </c>
       <c r="H2">
-        <v>0.9723375774776164</v>
+        <v>0.9970177439003295</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,22 +523,22 @@
         <v>1.503719234532486e-07</v>
       </c>
       <c r="K2">
-        <v>4.514298644053416e-06</v>
+        <v>4.012709905825259e-07</v>
       </c>
       <c r="L2">
-        <v>0.9999959359214866</v>
+        <v>0.9999994890860372</v>
       </c>
       <c r="M2">
-        <v>0.9999996009886021</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>6.432658229592136e-07</v>
+        <v>1.809185127072788e-06</v>
       </c>
       <c r="O2">
-        <v>6.43256911953637e-08</v>
+        <v>2.023475442741952e-05</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9997840356640758</v>
       </c>
       <c r="Q2">
         <v>0.559596290710022</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9999999999605357</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9723336257829874</v>
+        <v>0.996801914345087</v>
       </c>
       <c r="X2">
-        <v>-4.94016602314327e-06</v>
+        <v>-5.685661032183008e-07</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>3.785790525616838e-08</v>
       </c>
       <c r="F3">
-        <v>0.0007159231033007453</v>
+        <v>1.590940229557212e-05</v>
       </c>
       <c r="G3">
         <v>409.5215392064057</v>
       </c>
       <c r="H3">
-        <v>0.9779706589110637</v>
+        <v>0.9976362695572343</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,22 +597,22 @@
         <v>1.63974051406698e-07</v>
       </c>
       <c r="K3">
-        <v>4.922646601347373e-06</v>
+        <v>4.375685867864332e-07</v>
       </c>
       <c r="L3">
-        <v>0.9999955683130385</v>
+        <v>0.999999442870527</v>
       </c>
       <c r="M3">
-        <v>0.9999995648954009</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>7.014534409070048e-07</v>
+        <v>1.972837802550951e-06</v>
       </c>
       <c r="O3">
-        <v>6.4325691197825e-08</v>
+        <v>2.023475446850329e-05</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9997840356636374</v>
       </c>
       <c r="Q3">
         <v>0.558311400768743</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.9999999999520881</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9779663248043897</v>
+        <v>0.9974202600098147</v>
       </c>
       <c r="X3">
-        <v>-0.0004273954102066441</v>
+        <v>-4.926171716295968e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>2.67289016617397e-08</v>
       </c>
       <c r="F4">
-        <v>0.0005054647925184725</v>
+        <v>1.123255094485495e-05</v>
       </c>
       <c r="G4">
         <v>580.0323495457563</v>
       </c>
       <c r="H4">
-        <v>0.9824795604131267</v>
+        <v>0.9981253478515266</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,22 +671,22 @@
         <v>1.789906847856156e-07</v>
       </c>
       <c r="K4">
-        <v>5.373459267328675e-06</v>
+        <v>4.776408237625489e-07</v>
       </c>
       <c r="L4">
-        <v>0.9999951624786808</v>
+        <v>0.9999993918489999</v>
       </c>
       <c r="M4">
-        <v>0.9999995250488142</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>7.656920753989651e-07</v>
+        <v>2.153508962059589e-06</v>
       </c>
       <c r="O4">
-        <v>6.432569120078964e-08</v>
+        <v>2.023475451798875e-05</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9997840356631092</v>
       </c>
       <c r="Q4">
         <v>0.5568262969557191</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9999999999416813</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9824748075900109</v>
+        <v>0.9979091814928082</v>
       </c>
       <c r="X4">
-        <v>-0.0154093284786249</v>
+        <v>-0.001778323615555952</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>1.889490010158615e-08</v>
       </c>
       <c r="F5">
-        <v>0.0003573175912864607</v>
+        <v>7.940390917476903e-06</v>
       </c>
       <c r="G5">
         <v>820.5191638104975</v>
       </c>
       <c r="H5">
-        <v>0.9860760509636403</v>
+        <v>0.9985120770348314</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,22 +745,22 @@
         <v>1.956251490276788e-07</v>
       </c>
       <c r="K5">
-        <v>5.87284065215114e-06</v>
+        <v>5.220302801912125e-07</v>
       </c>
       <c r="L5">
-        <v>0.9999947129240455</v>
+        <v>0.9999993353306246</v>
       </c>
       <c r="M5">
-        <v>0.9999994809093188</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>8.368515184946253e-07</v>
+        <v>2.353644895766134e-06</v>
       </c>
       <c r="O5">
-        <v>6.432569120437676e-08</v>
+        <v>2.023475457786444e-05</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9997840356624703</v>
       </c>
       <c r="Q5">
         <v>0.555120258358371</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9999999999288319</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9860708374344851</v>
+        <v>0.9982957704985318</v>
       </c>
       <c r="X5">
-        <v>-0.2963292730934613</v>
+        <v>-0.03423467605528685</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.337698695977072e-08</v>
       </c>
       <c r="F6">
-        <v>0.0002529694644288921</v>
+        <v>5.621543653975381e-06</v>
       </c>
       <c r="G6">
         <v>1158.977554382103</v>
       </c>
       <c r="H6">
-        <v>0.9889366686249054</v>
+        <v>0.9988178949732853</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,22 +819,22 @@
         <v>2.141258788883885e-07</v>
       </c>
       <c r="K6">
-        <v>6.428248987738243e-06</v>
+        <v>5.713999100211771e-07</v>
       </c>
       <c r="L6">
-        <v>0.9999942129358478</v>
+        <v>0.9999992724713034</v>
       </c>
       <c r="M6">
-        <v>0.9999994318176937</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>9.159945323358728e-07</v>
+        <v>2.576234622194642e-06</v>
       </c>
       <c r="O6">
-        <v>6.432569120874052e-08</v>
+        <v>2.023475465070353e-05</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9997840356616929</v>
       </c>
       <c r="Q6">
         <v>0.5531745574539834</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>0.9999999999128401</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9889309454987665</v>
+        <v>0.9986014594157614</v>
       </c>
       <c r="X6">
-        <v>-3.205696617243948</v>
+        <v>-0.3706873298056542</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>9.487602955131187e-09</v>
       </c>
       <c r="F7">
-        <v>0.0001794181190047783</v>
+        <v>3.987069311217297e-06</v>
       </c>
       <c r="G7">
         <v>1634.093216690894</v>
       </c>
       <c r="H7">
-        <v>0.9912069609455211</v>
+        <v>0.9990597555860122</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,22 +893,22 @@
         <v>2.348000179484226e-07</v>
       </c>
       <c r="K7">
-        <v>7.048904997067673e-06</v>
+        <v>6.265693330726821e-07</v>
       </c>
       <c r="L7">
-        <v>0.9999936542144214</v>
+        <v>0.9999992022274659</v>
       </c>
       <c r="M7">
-        <v>0.9999993769589346</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.004435025554414e-06</v>
+        <v>2.824973509371791e-06</v>
       </c>
       <c r="O7">
-        <v>6.432569121408311e-08</v>
+        <v>2.023475473988151e-05</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9997840356607413</v>
       </c>
       <c r="Q7">
         <v>0.5509744003448189</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9999999998928407</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9912006708524665</v>
+        <v>0.9988431974557125</v>
       </c>
       <c r="X7">
-        <v>-18.49828953302331</v>
+        <v>-2.140688924431469</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>6.743738211120288e-09</v>
       </c>
       <c r="F8">
-        <v>0.0001275294540277398</v>
+        <v>2.833987867283106e-06</v>
       </c>
       <c r="G8">
         <v>2298.966410954563</v>
       </c>
       <c r="H8">
-        <v>0.9930057665166734</v>
+        <v>0.9992510632635382</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,22 +967,22 @@
         <v>2.580317192880479e-07</v>
       </c>
       <c r="K8">
-        <v>7.746341296664722e-06</v>
+        <v>6.88563670814642e-07</v>
       </c>
       <c r="L8">
-        <v>0.9999930263792358</v>
+        <v>0.9999991232938895</v>
       </c>
       <c r="M8">
-        <v>0.9999993153136925</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.103816340482017e-06</v>
+        <v>3.104483457605674e-06</v>
       </c>
       <c r="O8">
-        <v>6.432569122067381e-08</v>
+        <v>2.02347548498923e-05</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.9997840356595672</v>
       </c>
       <c r="Q8">
         <v>0.5485113590834908</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9999999998675999</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9929988415395679</v>
+        <v>0.999034384806416</v>
       </c>
       <c r="X8">
-        <v>-43.48895453465669</v>
+        <v>-4.15214734098751</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>4.806003878107212e-09</v>
       </c>
       <c r="F9">
-        <v>9.088535637690406e-05</v>
+        <v>2.019674586153424e-06</v>
       </c>
       <c r="G9">
         <v>3225.887457615259</v>
       </c>
       <c r="H9">
-        <v>0.9944293266016847</v>
+        <v>0.9994024141659658</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,22 +1041,22 @@
         <v>2.843068211189093e-07</v>
       </c>
       <c r="K9">
-        <v>8.53514318097593e-06</v>
+        <v>7.586793938645271e-07</v>
       </c>
       <c r="L9">
-        <v>0.9999923163021742</v>
+        <v>0.9999990340198606</v>
       </c>
       <c r="M9">
-        <v>0.9999992455927973</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.216216811357294e-06</v>
+        <v>3.42060978194239e-06</v>
       </c>
       <c r="O9">
-        <v>6.432569122887667e-08</v>
+        <v>2.023475498681342e-05</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.999784035658106</v>
       </c>
       <c r="Q9">
         <v>0.5457861921137659</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0.9999999998354381</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.994421685543586</v>
+        <v>0.9991856136869124</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>3.435864251838654e-09</v>
       </c>
       <c r="F10">
-        <v>6.497492613634857e-05</v>
+        <v>1.443887247474413e-06</v>
       </c>
       <c r="G10">
         <v>4512.293413029868</v>
       </c>
       <c r="H10">
-        <v>0.9955550633142438</v>
+        <v>0.9995221837673356</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,22 +1112,22 @@
         <v>3.142461232563716e-07</v>
       </c>
       <c r="K10">
-        <v>9.433947611612025e-06</v>
+        <v>8.3857312103218e-07</v>
       </c>
       <c r="L10">
-        <v>0.9999915072084445</v>
+        <v>0.9999989322961111</v>
       </c>
       <c r="M10">
-        <v>0.9999991661489588</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.344292115483247e-06</v>
+        <v>3.780821574796631e-06</v>
       </c>
       <c r="O10">
-        <v>6.432569123919228e-08</v>
+        <v>2.02347551590002e-05</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9997840356562685</v>
       </c>
       <c r="Q10">
         <v>0.5428117725830619</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0.9999999997940273</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9955466080675537</v>
+        <v>0.9993052556516264</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>2.465614566222241e-09</v>
       </c>
       <c r="F11">
-        <v>4.662673277480761e-05</v>
+        <v>1.036149617217947e-06</v>
       </c>
       <c r="G11">
         <v>6287.936421218773</v>
       </c>
       <c r="H11">
-        <v>0.996444929461491</v>
+        <v>0.9996169921974951</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,22 +1183,22 @@
         <v>3.486501754466912e-07</v>
       </c>
       <c r="K11">
-        <v>1.046678780269324e-05</v>
+        <v>9.303811380171764e-07</v>
       </c>
       <c r="L11">
-        <v>0.9999905774664903</v>
+        <v>0.999998815402645</v>
       </c>
       <c r="M11">
-        <v>0.9999990748579209</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1.491466870165548e-06</v>
+        <v>4.194750572340603e-06</v>
       </c>
       <c r="O11">
-        <v>6.432569125232051e-08</v>
+        <v>2.023475537813471e-05</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.9997840356539299</v>
       </c>
       <c r="Q11">
         <v>0.5396155854850875</v>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0.9999999997400087</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9964355401666881</v>
+        <v>0.9993999266795425</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>1.777304497156777e-09</v>
       </c>
       <c r="F12">
-        <v>3.361024183733806e-05</v>
+        <v>7.468942630519568e-07</v>
       </c>
       <c r="G12">
         <v>8723.112812935602</v>
       </c>
       <c r="H12">
-        <v>0.9971482959863998</v>
+        <v>0.9996920725789611</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,22 +1254,22 @@
         <v>3.885593017498834e-07</v>
       </c>
       <c r="K12">
-        <v>1.166489520611333e-05</v>
+        <v>1.036879573876741e-06</v>
       </c>
       <c r="L12">
-        <v>0.9999894989663165</v>
+        <v>0.9999986798047948</v>
       </c>
       <c r="M12">
-        <v>0.9999989689591873</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.66219140693712e-06</v>
+        <v>4.674913332010649e-06</v>
       </c>
       <c r="O12">
-        <v>6.432569126925663e-08</v>
+        <v>2.023475566083007e-05</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9997840356509131</v>
       </c>
       <c r="Q12">
         <v>0.536240921036377</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0.9999999996684972</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9971378245680022</v>
+        <v>0.9994748552275656</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.287940625483673e-09</v>
       </c>
       <c r="F13">
-        <v>2.435598174870326e-05</v>
+        <v>5.412440388600725e-07</v>
       </c>
       <c r="G13">
         <v>12037.53288379588</v>
       </c>
       <c r="H13">
-        <v>0.9977043864858901</v>
+        <v>0.9997515624215639</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,22 +1325,22 @@
         <v>4.353334933163737e-07</v>
       </c>
       <c r="K13">
-        <v>1.306909796362445e-05</v>
+        <v>1.161697596766618e-06</v>
       </c>
       <c r="L13">
-        <v>0.9999882349611361</v>
+        <v>0.9999985208817747</v>
       </c>
       <c r="M13">
-        <v>0.9999988448440258</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.862283539433017e-06</v>
+        <v>5.23767245465536e-06</v>
       </c>
       <c r="O13">
-        <v>6.432569129144001e-08</v>
+        <v>2.023475603111205e-05</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.9997840356469615</v>
       </c>
       <c r="Q13">
         <v>0.5327455337001347</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>0.999999999572279</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9976926480282743</v>
+        <v>0.999534173290787</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>9.390963302072559e-10</v>
       </c>
       <c r="F14">
-        <v>1.775905862912939e-05</v>
+        <v>3.946457473139865e-07</v>
       </c>
       <c r="G14">
         <v>16509.09191415405</v>
       </c>
       <c r="H14">
-        <v>0.9981442946364822</v>
+        <v>0.9997987340071846</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,22 +1396,22 @@
         <v>4.907577335573345e-07</v>
       </c>
       <c r="K14">
-        <v>1.473298286195953e-05</v>
+        <v>1.309598476618625e-06</v>
       </c>
       <c r="L14">
-        <v>0.9999867372221193</v>
+        <v>0.999998332568822</v>
       </c>
       <c r="M14">
-        <v>0.9999986977759889</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>2.099379126772334e-06</v>
+        <v>5.904503794047188e-06</v>
       </c>
       <c r="O14">
-        <v>6.432569132098639e-08</v>
+        <v>2.023475652429617e-05</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.9997840356416984</v>
       </c>
       <c r="Q14">
         <v>0.5291962741291327</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>0.9999999994404386</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.998131055911894</v>
+        <v>0.9995811463796164</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>6.896156232966538e-10</v>
       </c>
       <c r="F15">
-        <v>1.304118000651331e-05</v>
+        <v>2.898040001447402e-07</v>
       </c>
       <c r="G15">
         <v>22481.54929774136</v>
       </c>
       <c r="H15">
-        <v>0.9984926332267325</v>
+        <v>0.9998361763879032</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,22 +1467,22 @@
         <v>5.571791671282506e-07</v>
       </c>
       <c r="K15">
-        <v>1.672701326749926e-05</v>
+        <v>1.486845623777712e-06</v>
       </c>
       <c r="L15">
-        <v>0.999984942333209</v>
+        <v>0.9999981068911469</v>
       </c>
       <c r="M15">
-        <v>0.9999985215269362</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>2.383518859422692e-06</v>
+        <v>6.70364679212632e-06</v>
       </c>
       <c r="O15">
-        <v>6.432569136105406e-08</v>
+        <v>2.02347571931003e-05</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.999784035634561</v>
       </c>
       <c r="Q15">
         <v>0.5256582457685889</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>0.9999999992562336</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9984775975147341</v>
+        <v>0.9996183550125866</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>5.104890294133102e-10</v>
       </c>
       <c r="F16">
-        <v>9.653753625975239e-06</v>
+        <v>2.145278583550053e-07</v>
       </c>
       <c r="G16">
         <v>30370.14850143637</v>
       </c>
       <c r="H16">
-        <v>0.9987688671879644</v>
+        <v>0.9998659389833152</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,22 +1538,22 @@
         <v>6.376831780500678e-07</v>
       </c>
       <c r="K16">
-        <v>1.914381514779316e-05</v>
+        <v>1.701672457581614e-06</v>
       </c>
       <c r="L16">
-        <v>0.9999827669354185</v>
+        <v>0.9999978333656819</v>
       </c>
       <c r="M16">
-        <v>0.9999983079098114</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2.727901491817765e-06</v>
+        <v>7.672222945737464e-06</v>
       </c>
       <c r="O16">
-        <v>6.432569141642554e-08</v>
+        <v>2.02347581173535e-05</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.9997840356246975</v>
       </c>
       <c r="Q16">
         <v>0.5221776776416321</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0.9999999989934435</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9987516543342743</v>
+        <v>0.9996478376844127</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>3.812543930937494e-10</v>
       </c>
       <c r="F17">
-        <v>7.209823850627511e-06</v>
+        <v>1.602183077917225e-07</v>
       </c>
       <c r="G17">
         <v>40664.78422931654</v>
       </c>
       <c r="H17">
-        <v>0.9989883812283136</v>
+        <v>0.9998896446771526</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,22 +1609,22 @@
         <v>7.363158903387759e-07</v>
       </c>
       <c r="K17">
-        <v>2.210485673799838e-05</v>
+        <v>1.964876154488745e-06</v>
       </c>
       <c r="L17">
-        <v>0.9999801017181085</v>
+        <v>0.999997498245109</v>
       </c>
       <c r="M17">
-        <v>0.999998046188238</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>3.149835662665963e-06</v>
+        <v>8.85891280124802e-06</v>
       </c>
       <c r="O17">
-        <v>6.432569149443696e-08</v>
+        <v>2.02347594195094e-05</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.9997840356108012</v>
       </c>
       <c r="Q17">
         <v>0.518759221893586</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0.9999999986104665</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9989685016877974</v>
+        <v>0.9996712031821949</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>2.874682951751665e-10</v>
       </c>
       <c r="F18">
-        <v>5.436254134764813e-06</v>
+        <v>1.208056474392181e-07</v>
       </c>
       <c r="G18">
         <v>53931.60877859362</v>
       </c>
       <c r="H18">
-        <v>0.9991633281537371</v>
+        <v>0.9999085786854014</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,22 +1680,22 @@
         <v>8.583611224937569e-07</v>
       </c>
       <c r="K18">
-        <v>2.576876296050346e-05</v>
+        <v>2.290556707600308e-06</v>
       </c>
       <c r="L18">
-        <v>0.9999768039410173</v>
+        <v>0.9999970835768732</v>
       </c>
       <c r="M18">
-        <v>0.999997722341621</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>3.671924659717534e-06</v>
+        <v>1.032728810545556e-05</v>
       </c>
       <c r="O18">
-        <v>6.432569160646955e-08</v>
+        <v>2.023476128954177e-05</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.9997840355908446</v>
       </c>
       <c r="Q18">
         <v>0.5153408634255596</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.9999999980402948</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9991401495442237</v>
+        <v>0.9996897184932787</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.189290315033527e-10</v>
       </c>
       <c r="F19">
-        <v>4.140122137660247e-06</v>
+        <v>9.200271417022772e-08</v>
       </c>
       <c r="G19">
         <v>70815.768585716</v>
       </c>
       <c r="H19">
-        <v>0.9993032985250154</v>
+        <v>0.9999237582200794</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,22 +1751,22 @@
         <v>1.010681254361173e-06</v>
       </c>
       <c r="K19">
-        <v>3.034154855079284e-05</v>
+        <v>2.697026537848252e-06</v>
       </c>
       <c r="L19">
-        <v>0.9999726882326587</v>
+        <v>0.9999965660450548</v>
       </c>
       <c r="M19">
-        <v>0.9999973181606585</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>4.323524590933499e-06</v>
+        <v>1.215991291200047e-05</v>
       </c>
       <c r="O19">
-        <v>6.432569177035003e-08</v>
+        <v>2.02347640250122e-05</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.9997840355616523</v>
       </c>
       <c r="Q19">
         <v>0.5117726755690645</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0.9999999971735428</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.9992760029614118</v>
+        <v>0.9997043772956661</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.684270257958236e-10</v>
       </c>
       <c r="F20">
-        <v>3.185089036795397e-06</v>
+        <v>7.077975637323106e-08</v>
       </c>
       <c r="G20">
         <v>92049.5244654542</v>
       </c>
       <c r="H20">
-        <v>0.9994158469808496</v>
+        <v>0.9999359870318785</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,22 +1822,22 @@
         <v>1.202135448287695e-06</v>
       </c>
       <c r="K20">
-        <v>3.608917342778358e-05</v>
+        <v>3.207926526914096e-06</v>
       </c>
       <c r="L20">
-        <v>0.9999675153036487</v>
+        <v>0.9999959155494307</v>
       </c>
       <c r="M20">
-        <v>0.9999968101375927</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>5.14253346431156e-06</v>
+        <v>1.446337536837626e-05</v>
       </c>
       <c r="O20">
-        <v>6.432569201422156e-08</v>
+        <v>2.023476809568219e-05</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.9997840355182109</v>
       </c>
       <c r="Q20">
         <v>0.5078081570284126</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0.9999999958299366</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.9993833770930397</v>
+        <v>0.9997159530675452</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.308651919445982e-10</v>
       </c>
       <c r="F21">
-        <v>2.474764879278659e-06</v>
+        <v>5.499477509508131e-08</v>
       </c>
       <c r="G21">
         <v>118470.2165737075</v>
       </c>
       <c r="H21">
-        <v>0.999506905729754</v>
+        <v>0.999945898202439</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,22 +1893,22 @@
         <v>1.444097578693565e-06</v>
       </c>
       <c r="K21">
-        <v>4.335309139943269e-05</v>
+        <v>3.853608124394017e-06</v>
       </c>
       <c r="L21">
-        <v>0.9999609779735869</v>
+        <v>0.9999950934457833</v>
       </c>
       <c r="M21">
-        <v>0.9999961680918857</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>6.177606803576839e-06</v>
+        <v>1.737451913505986e-05</v>
       </c>
       <c r="O21">
-        <v>6.43256923827969e-08</v>
+        <v>2.023477424789083e-05</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.9997840354525559</v>
       </c>
       <c r="Q21">
         <v>0.5031170784148096</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0.9999999937093972</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9994678966576228</v>
+        <v>0.9997250401098862</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.026386281087213e-10</v>
       </c>
       <c r="F22">
-        <v>1.940978103698809e-06</v>
+        <v>4.313284674886243e-08</v>
       </c>
       <c r="G22">
         <v>151050.6123992025</v>
       </c>
       <c r="H22">
-        <v>0.9995811112641138</v>
+        <v>0.9999539879856628</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,22 +1964,22 @@
         <v>1.751112310064584e-06</v>
       </c>
       <c r="K22">
-        <v>5.256994620653046e-05</v>
+        <v>4.672884107247152e-06</v>
       </c>
       <c r="L22">
-        <v>0.9999526834768219</v>
+        <v>0.9999940503168662</v>
       </c>
       <c r="M22">
-        <v>0.9999953534293189</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>7.490964239597011e-06</v>
+        <v>2.106833692386659e-05</v>
       </c>
       <c r="O22">
-        <v>6.432569294748596e-08</v>
+        <v>2.023478367360305e-05</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.9997840353519667</v>
       </c>
       <c r="Q22">
         <v>0.4973249252852727</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0.9999999903089135</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.9995338048747255</v>
+        <v>0.9997320851500832</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>8.119608707754666e-11</v>
       </c>
       <c r="F23">
-        <v>1.535482595856603e-06</v>
+        <v>3.412183546348007e-08</v>
       </c>
       <c r="G23">
         <v>190940.5759520105</v>
       </c>
       <c r="H23">
-        <v>0.9996420659068106</v>
+        <v>0.9999606429807057</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,22 +2035,22 @@
         <v>2.141751266667246e-06</v>
       </c>
       <c r="K23">
-        <v>6.429727449766659e-05</v>
+        <v>5.715313288681475e-06</v>
       </c>
       <c r="L23">
-        <v>0.9999421303795476</v>
+        <v>0.9999927230635873</v>
       </c>
       <c r="M23">
-        <v>0.9999943168701488</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>9.162052060569558e-06</v>
+        <v>2.576827142035188e-05</v>
       </c>
       <c r="O23">
-        <v>6.432569382286374e-08</v>
+        <v>2.02347982852882e-05</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.9997840351960339</v>
       </c>
       <c r="Q23">
         <v>0.4900757859888837</v>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>0.9999999847794684</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9995842017856652</v>
+        <v>0.9997374115979567</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>6.472908254021182e-11</v>
       </c>
       <c r="F24">
-        <v>1.224078441013267e-06</v>
+        <v>2.720174313362815e-08</v>
       </c>
       <c r="G24">
         <v>239515.6400062521</v>
       </c>
       <c r="H24">
-        <v>0.9996925510339435</v>
+        <v>0.9999661623937773</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,22 +2106,22 @@
         <v>2.639758229302488e-06</v>
       </c>
       <c r="K24">
-        <v>7.924788565249693e-05</v>
+        <v>7.044256502444172e-06</v>
       </c>
       <c r="L24">
-        <v>0.9999286777149025</v>
+        <v>0.9999910310142794</v>
       </c>
       <c r="M24">
-        <v>0.9999929954103326</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>1.12924421713177e-05</v>
+        <v>3.175999360683102e-05</v>
       </c>
       <c r="O24">
-        <v>6.432569519359152e-08</v>
+        <v>2.023482116528753e-05</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.9997840349518634</v>
       </c>
       <c r="Q24">
         <v>0.4811052195154485</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0.9999999756795835</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.9996212263656037</v>
+        <v>0.9997412379080713</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.19510914822534e-11</v>
       </c>
       <c r="F25">
-        <v>9.824364655721603e-07</v>
+        <v>2.183192145715912e-08</v>
       </c>
       <c r="G25">
         <v>298427.3706151568</v>
       </c>
       <c r="H25">
-        <v>0.9997347037357512</v>
+        <v>0.9999707765972066</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,22 +2177,22 @@
         <v>3.275594601362588e-06</v>
       </c>
       <c r="K25">
-        <v>9.833625804485487e-05</v>
+        <v>8.741000715098211e-06</v>
       </c>
       <c r="L25">
-        <v>0.9999115033457072</v>
+        <v>0.9999888706741604</v>
       </c>
       <c r="M25">
-        <v>0.9999913082206375</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>1.401244333741174e-05</v>
+        <v>3.940999688647053e-05</v>
       </c>
       <c r="O25">
-        <v>6.432569735868574e-08</v>
+        <v>2.02348573047419e-05</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9997840345661908</v>
       </c>
       <c r="Q25">
         <v>0.4703022547444596</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0.9999999605471792</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.9996461911204266</v>
+        <v>0.9997436908775189</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.19409704133572e-11</v>
       </c>
       <c r="F26">
-        <v>7.931371133875153e-07</v>
+        <v>1.762526918638923e-08</v>
       </c>
       <c r="G26">
         <v>369653.5268220407</v>
       </c>
       <c r="H26">
-        <v>0.9997701638023913</v>
+        <v>0.999974662671223</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,22 +2248,22 @@
         <v>4.088506704298104e-06</v>
       </c>
       <c r="K26">
-        <v>0.0001227406010880384</v>
+        <v>1.091027565227008e-05</v>
       </c>
       <c r="L26">
-        <v>0.9998895482944962</v>
+        <v>0.9999861087020805</v>
       </c>
       <c r="M26">
-        <v>0.9999891511610804</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1.748994472782854e-05</v>
+        <v>4.919046954701776e-05</v>
       </c>
       <c r="O26">
-        <v>6.432570080467661e-08</v>
+        <v>2.023491482474673e-05</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0.9997840339523495</v>
       </c>
       <c r="Q26">
         <v>0.457740489247672</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>0.9999999351526014</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.999659672657354</v>
+        <v>0.9997448141495968</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.40326572343741e-11</v>
       </c>
       <c r="F27">
-        <v>6.435846203306191e-07</v>
+        <v>1.430188045179153e-08</v>
       </c>
       <c r="G27">
         <v>455551.4876451428</v>
       </c>
       <c r="H27">
-        <v>0.9998001941821009</v>
+        <v>0.9999779572149554</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,22 +2319,22 @@
         <v>5.12923820423864e-06</v>
       </c>
       <c r="K27">
-        <v>0.0001539842846900901</v>
+        <v>1.368749197245245e-05</v>
       </c>
       <c r="L27">
-        <v>0.9998614437466722</v>
+        <v>0.9999825726958097</v>
       </c>
       <c r="M27">
-        <v>0.9999863895835124</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>2.194201922029166e-05</v>
+        <v>6.17119290570703e-05</v>
       </c>
       <c r="O27">
-        <v>6.432570632690246e-08</v>
+        <v>2.023500700097956e-05</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.9997840329686642</v>
       </c>
       <c r="Q27">
         <v>0.4436687416136129</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>0.9999998921893291</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.9996615578389236</v>
+        <v>0.9997445717877307</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>2.773841210272067e-11</v>
       </c>
       <c r="F28">
-        <v>5.245554379947918e-07</v>
+        <v>1.165678751099537e-08</v>
       </c>
       <c r="G28">
         <v>558922.6800086264</v>
       </c>
       <c r="H28">
-        <v>0.9998257763312937</v>
+        <v>0.9999807665334489</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,22 +2390,22 @@
         <v>6.46352412286314e-06</v>
       </c>
       <c r="K28">
-        <v>0.0001940407325621481</v>
+        <v>1.724806511663539e-05</v>
       </c>
       <c r="L28">
-        <v>0.999825417097063</v>
+        <v>0.9999780393225626</v>
       </c>
       <c r="M28">
-        <v>0.9999828490602723</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>2.764987019270893e-05</v>
+        <v>7.776525991699386e-05</v>
       </c>
       <c r="O28">
-        <v>6.432571523093244e-08</v>
+        <v>2.023515562582119e-05</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.9997840313825714</v>
       </c>
       <c r="Q28">
         <v>0.428467029507397</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>0.9999998189726658</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9996510428806342</v>
+        <v>0.999742846557514</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.269612593133847e-11</v>
       </c>
       <c r="F29">
-        <v>4.292017954960906e-07</v>
+        <v>9.537817677690903e-09</v>
       </c>
       <c r="G29">
         <v>683095.7705530341</v>
       </c>
       <c r="H29">
-        <v>0.9998476822983702</v>
+        <v>0.9999831743630558</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,22 +2461,22 @@
         <v>8.176553442485585e-06</v>
       </c>
       <c r="K29">
-        <v>0.0002454673935850725</v>
+        <v>2.181932387422866e-05</v>
       </c>
       <c r="L29">
-        <v>0.9997791720743159</v>
+        <v>0.9999722191598986</v>
       </c>
       <c r="M29">
-        <v>0.9999783035426795</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>3.49779217979196e-05</v>
+        <v>9.837540505664887e-05</v>
       </c>
       <c r="O29">
-        <v>6.432572966733397e-08</v>
+        <v>2.023539659624636e-05</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0.999784028810986</v>
       </c>
       <c r="Q29">
         <v>0.4125851016825388</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>0.9999996933871468</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9996265815102359</v>
+        <v>0.9997394324349838</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>1.863343535955882e-11</v>
       </c>
       <c r="F30">
-        <v>3.523730850268219e-07</v>
+        <v>7.830513000596043e-09</v>
       </c>
       <c r="G30">
         <v>832032.7053209274</v>
       </c>
       <c r="H30">
-        <v>0.9998665269969188</v>
+        <v>0.9999852474839344</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,22 +2532,22 @@
         <v>1.037868300424866e-05</v>
       </c>
       <c r="K30">
-        <v>0.0003115772781060862</v>
+        <v>2.769575805387433e-05</v>
       </c>
       <c r="L30">
-        <v>0.9997197354390648</v>
+        <v>0.9999647372873685</v>
       </c>
       <c r="M30">
-        <v>0.9999724601992235</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>4.439826206011455e-05</v>
+        <v>0.0001248701120440722</v>
       </c>
       <c r="O30">
-        <v>6.432575318856992e-08</v>
+        <v>2.023578920947618e-05</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0.9997840246211008</v>
       </c>
       <c r="Q30">
         <v>0.3964823831537038</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0.9999994767382983</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9995857767985079</v>
+        <v>0.999734020714563</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.534316539601589e-11</v>
       </c>
       <c r="F31">
-        <v>2.901514626983368e-07</v>
+        <v>6.447810282185263e-09</v>
       </c>
       <c r="G31">
         <v>1010458.222373209</v>
       </c>
       <c r="H31">
-        <v>0.9998828053892391</v>
+        <v>0.9999870397162757</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,22 +2603,22 @@
         <v>1.321280581364587e-05</v>
       </c>
       <c r="K31">
-        <v>0.0003966601610122187</v>
+        <v>3.525868097886389e-05</v>
       </c>
       <c r="L31">
-        <v>0.9996432595715059</v>
+        <v>0.9999551082607467</v>
       </c>
       <c r="M31">
-        <v>0.9999649398637902</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>5.652216324783317e-05</v>
+        <v>0.0001589685841345308</v>
       </c>
       <c r="O31">
-        <v>6.432579167652115e-08</v>
+        <v>2.0236431645055e-05</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.9997840177651646</v>
       </c>
       <c r="Q31">
         <v>0.3805814571968537</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>0.9999991011243621</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9995252083191338</v>
+        <v>0.9997261788188802</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.266622346411515e-11</v>
       </c>
       <c r="F32">
-        <v>2.395283613335298e-07</v>
+        <v>5.32285247407844e-09</v>
       </c>
       <c r="G32">
         <v>1224013.430329876</v>
       </c>
       <c r="H32">
-        <v>0.9998969192455449</v>
+        <v>0.9999885947984021</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,22 +2674,22 @@
         <v>1.686389931688434e-05</v>
       </c>
       <c r="K32">
-        <v>0.0005062692294637908</v>
+        <v>4.50017092856703e-05</v>
       </c>
       <c r="L32">
-        <v>0.9995447670687928</v>
+        <v>0.9999427036856533</v>
       </c>
       <c r="M32">
-        <v>0.9999552516993425</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>7.214092779593669e-05</v>
+        <v>0.0002028963594260719</v>
       </c>
       <c r="O32">
-        <v>6.43258548891704e-08</v>
+        <v>2.023748678188676e-05</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.999784006504968</v>
       </c>
       <c r="Q32">
         <v>0.3652386406504299</v>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>0.999998447094971</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.999440181201998</v>
+        <v>0.9997153204814389</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.047941257128225e-11</v>
       </c>
       <c r="F33">
-        <v>1.981740278030523e-07</v>
+        <v>4.403867284512274e-09</v>
       </c>
       <c r="G33">
         <v>1479436.707561495</v>
       </c>
       <c r="H33">
-        <v>0.999909197004983</v>
+        <v>0.9999899485251849</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,22 +2745,22 @@
         <v>2.157141146188025e-05</v>
       </c>
       <c r="K33">
-        <v>0.0006475929234419895</v>
+        <v>5.756381541706574e-05</v>
       </c>
       <c r="L33">
-        <v>0.9994178200734962</v>
+        <v>0.9999267101596967</v>
       </c>
       <c r="M33">
-        <v>0.9999427603315482</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>9.227887379343381e-05</v>
+        <v>0.0002595343325440326</v>
       </c>
       <c r="O33">
-        <v>6.432595904237217e-08</v>
+        <v>2.023922529277958e-05</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.9997839879519487</v>
       </c>
       <c r="Q33">
         <v>0.350729864341758</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0.9999973040801197</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9993243758364454</v>
+        <v>0.9997006653760702</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>8.686587014053822e-12</v>
       </c>
       <c r="F34">
-        <v>1.642702703731894e-07</v>
+        <v>3.650450452737542e-09</v>
       </c>
       <c r="G34">
         <v>1784777.796682794</v>
       </c>
       <c r="H34">
-        <v>0.9999199089393735</v>
+        <v>0.9999911303829528</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,22 +2816,22 @@
         <v>2.764531658338609e-05</v>
       </c>
       <c r="K34">
-        <v>0.0008299369476749955</v>
+        <v>7.377217312666627e-05</v>
       </c>
       <c r="L34">
-        <v>0.9992540926148407</v>
+        <v>0.9999060747631253</v>
       </c>
       <c r="M34">
-        <v>0.9999266432445427</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0.0001182620193623364</v>
+        <v>0.000332611929456571</v>
       </c>
       <c r="O34">
-        <v>6.432613112281725e-08</v>
+        <v>2.024209763585914e-05</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0.9997839572989136</v>
       </c>
       <c r="Q34">
         <v>0.3372483466514601</v>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>0.9999953002409229</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9991693654173637</v>
+        <v>0.9996811854859705</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.212155524051183e-12</v>
       </c>
       <c r="F35">
-        <v>1.363875980281568e-07</v>
+        <v>3.030835511736817e-09</v>
       </c>
       <c r="G35">
         <v>2149652.427756815</v>
       </c>
       <c r="H35">
-        <v>0.9999292789107983</v>
+        <v>0.9999921648190064</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,22 +2887,22 @@
         <v>3.548691496862573e-05</v>
       </c>
       <c r="K35">
-        <v>0.00106534869306445</v>
+        <v>9.469766160572893e-05</v>
       </c>
       <c r="L35">
-        <v>0.9990428181238131</v>
+        <v>0.9998794344610584</v>
       </c>
       <c r="M35">
-        <v>0.9999058355893508</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0.0001518070597046919</v>
+        <v>0.0004269573554194459</v>
       </c>
       <c r="O35">
-        <v>6.432641609765517e-08</v>
+        <v>2.024685439658851e-05</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0.9997839065357756</v>
       </c>
       <c r="Q35">
         <v>0.3249104994990378</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>0.9999917780358404</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9989639512142214</v>
+        <v>0.9996555345068455</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>5.996268755206733e-12</v>
       </c>
       <c r="F36">
-        <v>1.133942120253324e-07</v>
+        <v>2.519871378340719e-09</v>
       </c>
       <c r="G36">
         <v>2585545.822670824</v>
       </c>
       <c r="H36">
-        <v>0.9999374935464286</v>
+        <v>0.9999930722336088</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,22 +2958,22 @@
         <v>4.561577120072551e-05</v>
       </c>
       <c r="K36">
-        <v>0.00136942594967144</v>
+        <v>0.0001217267510819058</v>
       </c>
       <c r="L36">
-        <v>0.9987700762408651</v>
+        <v>0.9998450246967835</v>
       </c>
       <c r="M36">
-        <v>0.9998789587030819</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.000195136604809586</v>
+        <v>0.0005488217010269607</v>
       </c>
       <c r="O36">
-        <v>6.432688897273135e-08</v>
+        <v>2.02547475622049e-05</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0.9997838223015982</v>
       </c>
       <c r="Q36">
         <v>0.3137668443944204</v>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0.9999855734060314</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9986932387157543</v>
+        <v>0.999621955305224</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>4.991228394730075e-12</v>
       </c>
       <c r="F37">
-        <v>9.438809932717369e-08</v>
+        <v>2.097513318381638e-09</v>
       </c>
       <c r="G37">
         <v>3106174.754095738</v>
       </c>
       <c r="H37">
-        <v>0.9999447094224118</v>
+        <v>0.9999938697576596</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,22 +3029,22 @@
         <v>5.870460149883951e-05</v>
       </c>
       <c r="K37">
-        <v>0.001762364255640451</v>
+        <v>0.0001566546005013734</v>
       </c>
       <c r="L37">
-        <v>0.9984178728019383</v>
+        <v>0.9998005610583673</v>
       </c>
       <c r="M37">
-        <v>0.9998442275354895</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.0002511284216324086</v>
+        <v>0.0007062986858411492</v>
       </c>
       <c r="O37">
-        <v>6.432767496947316e-08</v>
+        <v>2.026786731152122e-05</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.9997836822904517</v>
       </c>
       <c r="Q37">
         <v>0.3038152119064486</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0.9999746238540086</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.998337335104218</v>
+        <v>0.9995781587970782</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.158788085411252e-12</v>
       </c>
       <c r="F38">
-        <v>7.864599089493126e-08</v>
+        <v>1.747688686554028e-09</v>
       </c>
       <c r="G38">
         <v>3727919.603795642</v>
       </c>
       <c r="H38">
-        <v>0.9999510587078119</v>
+        <v>0.9999945718643233</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,22 +3100,22 @@
         <v>7.562445560233146e-05</v>
       </c>
       <c r="K38">
-        <v>0.002270313297475529</v>
+        <v>0.0002018056264422692</v>
       </c>
       <c r="L38">
-        <v>0.997962953941762</v>
+        <v>0.9997430861040922</v>
       </c>
       <c r="M38">
-        <v>0.9997993307589921</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.0003235087146038984</v>
+        <v>0.0009098682598234644</v>
       </c>
       <c r="O38">
-        <v>6.432898329965143e-08</v>
+        <v>2.028970577858911e-05</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0.9997834492350657</v>
       </c>
       <c r="Q38">
         <v>0.2950141541138939</v>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0.9999552728470595</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.997869478488116</v>
+        <v>0.9995211654081103</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.468109238631446e-12</v>
       </c>
       <c r="F39">
-        <v>6.558470448658694e-08</v>
+        <v>1.45743787747971e-09</v>
       </c>
       <c r="G39">
         <v>4470340.051270776</v>
       </c>
       <c r="H39">
-        <v>0.9999566536166223</v>
+        <v>0.9999951908519508</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,22 +3171,22 @@
         <v>9.750323113378348e-05</v>
       </c>
       <c r="K39">
-        <v>0.002927133563167549</v>
+        <v>0.0002601896500593377</v>
       </c>
       <c r="L39">
-        <v>0.9973752788881941</v>
+        <v>0.9996687711168165</v>
       </c>
       <c r="M39">
-        <v>0.9997412755010057</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0.0004171024402434792</v>
+        <v>0.001173100613184785</v>
       </c>
       <c r="O39">
-        <v>6.433116372045822e-08</v>
+        <v>2.032610106226737e-05</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0.9997830608326093</v>
       </c>
       <c r="Q39">
         <v>0.2872952087990484</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>0.9999210355699812</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9972532925204104</v>
+        <v>0.9994470972937705</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>2.894200772787367e-12</v>
       </c>
       <c r="F40">
-        <v>5.473163886931491e-08</v>
+        <v>1.216258641540332e-09</v>
       </c>
       <c r="G40">
         <v>5356790.647493682</v>
       </c>
       <c r="H40">
-        <v>0.9999615899363291</v>
+        <v>0.9999957372271592</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,22 +3242,22 @@
         <v>0.0001258014549196122</v>
       </c>
       <c r="K40">
-        <v>0.003776671364718673</v>
+        <v>0.0003357041213083265</v>
       </c>
       <c r="L40">
-        <v>0.9966160554160319</v>
+        <v>0.9995726595733617</v>
       </c>
       <c r="M40">
-        <v>0.9996661862584618</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0.0005381574869160356</v>
+        <v>0.00151356793195135</v>
       </c>
       <c r="O40">
-        <v>6.433480126058142e-08</v>
+        <v>2.038681838080675e-05</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0.9997824128710863</v>
       </c>
       <c r="Q40">
         <v>0.2805732851395691</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>0.9998604100532603</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9964386630913078</v>
+        <v>0.9993509054041669</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.416718851929949e-12</v>
       </c>
       <c r="F41">
-        <v>4.570207592236488e-08</v>
+        <v>1.015601687163664e-09</v>
       </c>
       <c r="G41">
         <v>6415155.664158217</v>
       </c>
       <c r="H41">
-        <v>0.999965949839797</v>
+        <v>0.9999962200103436</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,22 +3313,22 @@
         <v>0.0001624104268548831</v>
       </c>
       <c r="K41">
-        <v>0.004875705204097367</v>
+        <v>0.0004333960181419882</v>
       </c>
       <c r="L41">
-        <v>0.9956352161497023</v>
+        <v>0.9994483352741423</v>
       </c>
       <c r="M41">
-        <v>0.9995690444733896</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.0006947645177954031</v>
+        <v>0.001954025206299571</v>
       </c>
       <c r="O41">
-        <v>6.434087491661259e-08</v>
+        <v>2.048819901042241e-05</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0.9997813309608188</v>
       </c>
       <c r="Q41">
         <v>0.2747549210318906</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0.9997529985563169</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.995355399649047</v>
+        <v>0.9992260097886979</v>
       </c>
     </row>
   </sheetData>
